--- a/results_table.xlsx
+++ b/results_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayuen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayuen/Documents/PyTorch for Deep Learning Course/COC102-B828500-CW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F7E18C-94C0-2A4D-B97D-CB4D3F613DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09085A1F-9A45-0941-8DC3-CC64281B8215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="4060" windowWidth="28800" windowHeight="17540" xr2:uid="{2613D037-F13B-4D4D-AE5F-7A1B9873D771}"/>
+    <workbookView xWindow="-560" yWindow="1540" windowWidth="28800" windowHeight="16180" xr2:uid="{2613D037-F13B-4D4D-AE5F-7A1B9873D771}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +137,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -167,32 +179,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -236,17 +228,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -399,79 +380,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,58 +543,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C18EA6-2EE4-6A43-AAF6-75F7C4481E36}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="92" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,42 +881,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="33"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="27" t="s">
@@ -930,7 +945,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -939,13 +954,13 @@
       <c r="C3" s="5">
         <v>100</v>
       </c>
-      <c r="D3" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="38">
+        <v>10</v>
+      </c>
+      <c r="E3" s="38">
         <v>0.01</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
@@ -974,7 +989,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -983,13 +998,13 @@
       <c r="C4" s="5">
         <v>100</v>
       </c>
-      <c r="D4" s="5">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="38">
+        <v>10</v>
+      </c>
+      <c r="E4" s="38">
         <v>0.01</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -1018,7 +1033,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+      <c r="A5" s="33">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1027,13 +1042,13 @@
       <c r="C5" s="11">
         <v>100</v>
       </c>
-      <c r="D5" s="11">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="39">
+        <v>10</v>
+      </c>
+      <c r="E5" s="39">
         <v>0.01</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -1062,7 +1077,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="31">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1071,13 +1086,13 @@
       <c r="C6" s="5">
         <v>100</v>
       </c>
-      <c r="D6" s="5">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="38">
+        <v>20</v>
+      </c>
+      <c r="E6" s="38">
         <v>0.01</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -1106,7 +1121,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1115,13 +1130,13 @@
       <c r="C7" s="5">
         <v>100</v>
       </c>
-      <c r="D7" s="5">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="38">
+        <v>20</v>
+      </c>
+      <c r="E7" s="38">
         <v>0.01</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="10" t="s">
@@ -1150,7 +1165,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="33">
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1159,13 +1174,13 @@
       <c r="C8" s="11">
         <v>100</v>
       </c>
-      <c r="D8" s="11">
-        <v>20</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="39">
+        <v>20</v>
+      </c>
+      <c r="E8" s="39">
         <v>0.01</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -1186,7 +1201,7 @@
       <c r="L8" s="11">
         <v>6.96E-4</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="30">
         <v>0.98</v>
       </c>
       <c r="N8" s="15">
@@ -1194,20 +1209,20 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5">
         <v>100</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="38">
         <v>50</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="38">
         <v>0.01</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1226,20 +1241,22 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
+      <c r="A10" s="32">
+        <v>37</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5">
         <v>100</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="38">
         <v>50</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="38">
         <v>0.01</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="10" t="s">
@@ -1251,27 +1268,37 @@
       <c r="I10" s="6">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
+      <c r="J10" s="5">
+        <v>8.1030000000000008E-3</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="L10" s="5">
+        <v>8.0529999999999994E-3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="N10" s="8">
+        <v>226.54</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11">
         <v>100</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="39">
         <v>50</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="39">
         <v>0.01</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -1290,7 +1317,7 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39">
+      <c r="A12" s="31">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1299,13 +1326,13 @@
       <c r="C12" s="5">
         <v>100</v>
       </c>
-      <c r="D12" s="5">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="38">
+        <v>10</v>
+      </c>
+      <c r="E12" s="38">
         <v>0.05</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -1334,7 +1361,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39">
+      <c r="A13" s="32">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1343,13 +1370,13 @@
       <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="D13" s="5">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="38">
+        <v>10</v>
+      </c>
+      <c r="E13" s="38">
         <v>0.05</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -1378,7 +1405,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40">
+      <c r="A14" s="33">
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1387,13 +1414,13 @@
       <c r="C14" s="11">
         <v>100</v>
       </c>
-      <c r="D14" s="11">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="D14" s="39">
+        <v>10</v>
+      </c>
+      <c r="E14" s="39">
         <v>0.05</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -1422,7 +1449,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39">
+      <c r="A15" s="32">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1431,13 +1458,13 @@
       <c r="C15" s="5">
         <v>100</v>
       </c>
-      <c r="D15" s="5">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="38">
+        <v>20</v>
+      </c>
+      <c r="E15" s="38">
         <v>0.05</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -1466,7 +1493,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="39">
+      <c r="A16" s="32">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1475,13 +1502,13 @@
       <c r="C16" s="5">
         <v>100</v>
       </c>
-      <c r="D16" s="5">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="38">
+        <v>20</v>
+      </c>
+      <c r="E16" s="38">
         <v>0.05</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -1509,8 +1536,8 @@
         <v>93.71</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="40">
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33">
         <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1519,13 +1546,13 @@
       <c r="C17" s="11">
         <v>100</v>
       </c>
-      <c r="D17" s="11">
-        <v>20</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="39">
+        <v>20</v>
+      </c>
+      <c r="E17" s="39">
         <v>0.05</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -1553,21 +1580,21 @@
         <v>336.32</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
+    <row r="18" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="5">
         <v>100</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="38">
         <v>50</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="38">
         <v>0.05</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -1585,21 +1612,21 @@
       <c r="M18" s="6"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
+    <row r="19" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="5">
         <v>100</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="38">
         <v>50</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="38">
         <v>0.05</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="10" t="s">
@@ -1617,21 +1644,21 @@
       <c r="M19" s="6"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+    <row r="20" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33"/>
       <c r="B20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="11">
         <v>100</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="39">
         <v>50</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="39">
         <v>0.05</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -1649,8 +1676,8 @@
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39">
+    <row r="21" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32">
         <v>13</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1659,13 +1686,13 @@
       <c r="C21" s="5">
         <v>100</v>
       </c>
-      <c r="D21" s="5">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="38">
+        <v>10</v>
+      </c>
+      <c r="E21" s="38">
         <v>0.1</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="10" t="s">
@@ -1693,8 +1720,8 @@
         <v>46.25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="39">
+    <row r="22" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32">
         <v>14</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1703,13 +1730,13 @@
       <c r="C22" s="5">
         <v>100</v>
       </c>
-      <c r="D22" s="5">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="38">
+        <v>10</v>
+      </c>
+      <c r="E22" s="38">
         <v>0.1</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -1737,8 +1764,8 @@
         <v>48.1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="40">
+    <row r="23" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="33">
         <v>15</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1747,13 +1774,13 @@
       <c r="C23" s="11">
         <v>100</v>
       </c>
-      <c r="D23" s="11">
-        <v>10</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="D23" s="39">
+        <v>10</v>
+      </c>
+      <c r="E23" s="39">
         <v>0.1</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -1785,9 +1812,10 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
-    </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39">
+      <c r="V23" s="51"/>
+    </row>
+    <row r="24" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32">
         <v>16</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1796,13 +1824,13 @@
       <c r="C24" s="5">
         <v>100</v>
       </c>
-      <c r="D24" s="5">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="38">
+        <v>20</v>
+      </c>
+      <c r="E24" s="38">
         <v>0.1</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="10" t="s">
@@ -1835,8 +1863,8 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="39">
+    <row r="25" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32">
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1845,13 +1873,13 @@
       <c r="C25" s="5">
         <v>100</v>
       </c>
-      <c r="D25" s="5">
-        <v>20</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="38">
+        <v>20</v>
+      </c>
+      <c r="E25" s="38">
         <v>0.1</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -1879,65 +1907,65 @@
         <v>97.49</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="40">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="41">
         <v>18</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="11">
-        <v>100</v>
-      </c>
-      <c r="D26" s="11">
-        <v>20</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="B26" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="42">
+        <v>100</v>
+      </c>
+      <c r="D26" s="42">
+        <v>20</v>
+      </c>
+      <c r="E26" s="42">
         <v>0.1</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="42">
         <v>2.3064999999999999E-2</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="44">
         <v>0.12</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="42">
         <v>5.1599999999999997E-4</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="44">
         <v>0.98699999999999999</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="42">
         <v>3.9800000000000002E-4</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="44">
         <v>0.98799999999999999</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="45">
         <v>332.63</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="5">
         <v>100</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="38">
         <v>50</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="38">
         <v>0.1</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G27" s="10" t="s">
@@ -1955,21 +1983,21 @@
       <c r="M27" s="5"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="5">
         <v>100</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="38">
         <v>50</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="38">
         <v>0.1</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="38" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -1987,21 +2015,21 @@
       <c r="M28" s="5"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
       <c r="B29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="11">
         <v>100</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="39">
         <v>50</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="39">
         <v>0.1</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -2019,8 +2047,8 @@
       <c r="M29" s="11"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="39">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="32">
         <v>19</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2029,13 +2057,13 @@
       <c r="C30" s="5">
         <v>100</v>
       </c>
-      <c r="D30" s="5">
-        <v>10</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="38">
+        <v>10</v>
+      </c>
+      <c r="E30" s="38">
         <v>0.01</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G30" s="10" t="s">
@@ -2063,8 +2091,8 @@
         <v>49.94</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="39">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="32">
         <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2073,13 +2101,13 @@
       <c r="C31" s="5">
         <v>100</v>
       </c>
-      <c r="D31" s="5">
-        <v>10</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="38">
+        <v>10</v>
+      </c>
+      <c r="E31" s="38">
         <v>0.01</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="10" t="s">
@@ -2107,8 +2135,8 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="40">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="33">
         <v>21</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -2117,13 +2145,13 @@
       <c r="C32" s="11">
         <v>100</v>
       </c>
-      <c r="D32" s="11">
-        <v>10</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="D32" s="39">
+        <v>10</v>
+      </c>
+      <c r="E32" s="39">
         <v>0.01</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -2152,7 +2180,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="39">
+      <c r="A33" s="32">
         <v>22</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2161,13 +2189,13 @@
       <c r="C33" s="5">
         <v>100</v>
       </c>
-      <c r="D33" s="5">
-        <v>20</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="38">
+        <v>20</v>
+      </c>
+      <c r="E33" s="38">
         <v>0.01</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="10" t="s">
@@ -2196,7 +2224,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="39">
+      <c r="A34" s="32">
         <v>23</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2205,13 +2233,13 @@
       <c r="C34" s="5">
         <v>100</v>
       </c>
-      <c r="D34" s="5">
-        <v>20</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="38">
+        <v>20</v>
+      </c>
+      <c r="E34" s="38">
         <v>0.01</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="10" t="s">
@@ -2240,7 +2268,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="40">
+      <c r="A35" s="33">
         <v>24</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -2249,13 +2277,13 @@
       <c r="C35" s="11">
         <v>100</v>
       </c>
-      <c r="D35" s="11">
-        <v>20</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="D35" s="39">
+        <v>20</v>
+      </c>
+      <c r="E35" s="39">
         <v>0.01</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -2284,20 +2312,20 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="5">
         <v>100</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="38">
         <v>50</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="38">
         <v>0.01</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G36" s="10" t="s">
@@ -2316,20 +2344,20 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="5">
         <v>100</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="38">
         <v>50</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="38">
         <v>0.01</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="10" t="s">
@@ -2348,20 +2376,20 @@
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="11">
         <v>100</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="39">
         <v>50</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="39">
         <v>0.01</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -2380,7 +2408,7 @@
       <c r="N38" s="18"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="39">
+      <c r="A39" s="32">
         <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2389,13 +2417,13 @@
       <c r="C39" s="5">
         <v>100</v>
       </c>
-      <c r="D39" s="5">
-        <v>10</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="D39" s="38">
+        <v>10</v>
+      </c>
+      <c r="E39" s="38">
         <v>0.05</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="10" t="s">
@@ -2424,7 +2452,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="39">
+      <c r="A40" s="32">
         <v>26</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2433,13 +2461,13 @@
       <c r="C40" s="5">
         <v>100</v>
       </c>
-      <c r="D40" s="5">
-        <v>10</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="38">
+        <v>10</v>
+      </c>
+      <c r="E40" s="38">
         <v>0.05</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="10" t="s">
@@ -2468,7 +2496,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="40">
+      <c r="A41" s="33">
         <v>27</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -2477,13 +2505,13 @@
       <c r="C41" s="11">
         <v>100</v>
       </c>
-      <c r="D41" s="11">
-        <v>10</v>
-      </c>
-      <c r="E41" s="11">
+      <c r="D41" s="39">
+        <v>10</v>
+      </c>
+      <c r="E41" s="39">
         <v>0.05</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -2512,7 +2540,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="39">
+      <c r="A42" s="32">
         <v>28</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2521,13 +2549,13 @@
       <c r="C42" s="5">
         <v>100</v>
       </c>
-      <c r="D42" s="5">
-        <v>20</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42" s="38">
+        <v>20</v>
+      </c>
+      <c r="E42" s="38">
         <v>0.05</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="10" t="s">
@@ -2556,7 +2584,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="39">
+      <c r="A43" s="32">
         <v>29</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2565,13 +2593,13 @@
       <c r="C43" s="5">
         <v>100</v>
       </c>
-      <c r="D43" s="5">
-        <v>20</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="38">
+        <v>20</v>
+      </c>
+      <c r="E43" s="38">
         <v>0.05</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="10" t="s">
@@ -2600,7 +2628,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="40">
+      <c r="A44" s="33">
         <v>30</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -2609,13 +2637,13 @@
       <c r="C44" s="11">
         <v>100</v>
       </c>
-      <c r="D44" s="11">
-        <v>20</v>
-      </c>
-      <c r="E44" s="11">
+      <c r="D44" s="39">
+        <v>20</v>
+      </c>
+      <c r="E44" s="39">
         <v>0.05</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="12" t="s">
@@ -2644,20 +2672,20 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C45" s="5">
         <v>100</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="38">
         <v>50</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="38">
         <v>0.05</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G45" s="10" t="s">
@@ -2676,20 +2704,20 @@
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C46" s="5">
         <v>100</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="38">
         <v>50</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="38">
         <v>0.05</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G46" s="10" t="s">
@@ -2708,20 +2736,20 @@
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="11">
         <v>100</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="39">
         <v>50</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="39">
         <v>0.05</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="12" t="s">
@@ -2740,7 +2768,7 @@
       <c r="N47" s="18"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="39">
+      <c r="A48" s="32">
         <v>31</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2749,13 +2777,13 @@
       <c r="C48" s="5">
         <v>100</v>
       </c>
-      <c r="D48" s="5">
-        <v>10</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="D48" s="38">
+        <v>10</v>
+      </c>
+      <c r="E48" s="38">
         <v>0.1</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G48" s="10" t="s">
@@ -2784,7 +2812,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="39">
+      <c r="A49" s="32">
         <v>32</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -2793,13 +2821,13 @@
       <c r="C49" s="5">
         <v>100</v>
       </c>
-      <c r="D49" s="5">
-        <v>10</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="38">
+        <v>10</v>
+      </c>
+      <c r="E49" s="38">
         <v>0.1</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="10" t="s">
@@ -2828,7 +2856,7 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="40">
+      <c r="A50" s="33">
         <v>33</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -2837,13 +2865,13 @@
       <c r="C50" s="11">
         <v>100</v>
       </c>
-      <c r="D50" s="11">
-        <v>10</v>
-      </c>
-      <c r="E50" s="11">
+      <c r="D50" s="39">
+        <v>10</v>
+      </c>
+      <c r="E50" s="39">
         <v>0.1</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G50" s="12" t="s">
@@ -2872,7 +2900,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="39">
+      <c r="A51" s="32">
         <v>34</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2881,13 +2909,13 @@
       <c r="C51" s="5">
         <v>100</v>
       </c>
-      <c r="D51" s="5">
-        <v>20</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="D51" s="38">
+        <v>20</v>
+      </c>
+      <c r="E51" s="38">
         <v>0.1</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="10" t="s">
@@ -2916,7 +2944,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="39">
+      <c r="A52" s="32">
         <v>35</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2925,13 +2953,13 @@
       <c r="C52" s="5">
         <v>100</v>
       </c>
-      <c r="D52" s="5">
-        <v>20</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="D52" s="38">
+        <v>20</v>
+      </c>
+      <c r="E52" s="38">
         <v>0.1</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G52" s="10" t="s">
@@ -2960,7 +2988,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="40">
+      <c r="A53" s="33">
         <v>36</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -2969,13 +2997,13 @@
       <c r="C53" s="11">
         <v>100</v>
       </c>
-      <c r="D53" s="11">
-        <v>20</v>
-      </c>
-      <c r="E53" s="11">
+      <c r="D53" s="39">
+        <v>20</v>
+      </c>
+      <c r="E53" s="39">
         <v>0.1</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="39" t="s">
         <v>21</v>
       </c>
       <c r="G53" s="12" t="s">
@@ -3004,20 +3032,20 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="5">
         <v>100</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="38">
         <v>50</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="38">
         <v>0.1</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="10" t="s">
@@ -3036,20 +3064,20 @@
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="5">
         <v>100</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="38">
         <v>50</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="38">
         <v>0.1</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="38" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="10" t="s">
@@ -3068,43 +3096,51 @@
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="22">
         <v>100</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="40">
         <v>50</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="40">
         <v>0.1</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="40" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="34">
+      <c r="H56" s="29">
         <v>2.3064999999999999E-2</v>
       </c>
       <c r="I56" s="24">
         <v>0.12</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="43"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K57" s="44">
+      <c r="J57">
+        <f>MIN(J3:J56)</f>
+        <v>5.1599999999999997E-4</v>
+      </c>
+      <c r="K57" s="36">
         <f>MAX(K3:K56)</f>
         <v>0.98699999999999999</v>
       </c>
-      <c r="M57" s="44">
+      <c r="L57">
+        <f>MIN(L3:L56)</f>
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="M57" s="36">
         <f>MAX(M3:M56)</f>
         <v>0.98799999999999999</v>
       </c>
